--- a/Price Reporter.xlsx
+++ b/Price Reporter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Date_of_Action</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>ACC</t>
+  </si>
+  <si>
+    <t>DOA</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,15 +610,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN1"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -623,114 +626,117 @@
         <v>40</v>
       </c>
       <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>6</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Price Reporter.xlsx
+++ b/Price Reporter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Date_of_Action</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>DOA</t>
+  </si>
+  <si>
+    <t>Car Manufacturer</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -494,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +583,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -603,8 +609,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2">
+        <v>42920</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43285</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <f>COUNT(D4:M4)</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
